--- a/stage3-day2/Section1_ハンズオン結果のみ.xlsx
+++ b/stage3-day2/Section1_ハンズオン結果のみ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\rabbit\rabbit-report\stage3-day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E875E8D-2999-4203-813C-652FE6BD7A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCD6486-5D32-4A80-9975-67793821FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="21480" windowWidth="29040" windowHeight="15840" xr2:uid="{A9104207-3D0A-4191-BD7F-30C3535413A9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -321,13 +322,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +409,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,6 +1231,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>86426</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>152488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59810FB7-5233-4894-A948-4CC4E3E7DD6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="46129575"/>
+          <a:ext cx="5020376" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>267326</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E203869E-6F67-41A5-9AB1-B25B9757DA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="46796325"/>
+          <a:ext cx="4486901" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>305511</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>114377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077994FC-90A8-4CA4-8745-4492537C9B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="46167675"/>
+          <a:ext cx="5096586" cy="552527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>105311</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44732570-EB9C-4CEE-B572-FF64AD703377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781675" y="46805850"/>
+          <a:ext cx="3839111" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>229250</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>171528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587798F9-BA8F-44B8-B7F4-1B9F71C4F7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="46215300"/>
+          <a:ext cx="4658375" cy="562053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>171966</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB57F9E-FC25-4D97-8035-919E2732110A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11630025" y="46853475"/>
+          <a:ext cx="3696216" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1490,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B3973A-0486-4947-AAD4-A74B2DC00B5F}">
-  <dimension ref="A1:AT190"/>
+  <dimension ref="A1:AU262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="AO178" sqref="AO178"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="AL207" sqref="AL207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9901,6 +10206,7 @@
       <c r="AT174" s="1"/>
     </row>
     <row r="175" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A175" s="17"/>
       <c r="B175" s="11"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -9948,6 +10254,7 @@
       <c r="AT175" s="1"/>
     </row>
     <row r="176" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A176" s="17"/>
       <c r="B176" s="11"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -9994,7 +10301,8 @@
       <c r="AS176" s="1"/>
       <c r="AT176" s="1"/>
     </row>
-    <row r="177" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A177" s="17"/>
       <c r="B177" s="11"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10041,7 +10349,8 @@
       <c r="AS177" s="1"/>
       <c r="AT177" s="1"/>
     </row>
-    <row r="178" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A178" s="17"/>
       <c r="B178" s="11"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -10088,7 +10397,8 @@
       <c r="AS178" s="1"/>
       <c r="AT178" s="1"/>
     </row>
-    <row r="179" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A179" s="17"/>
       <c r="B179" s="11"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10135,7 +10445,8 @@
       <c r="AS179" s="1"/>
       <c r="AT179" s="1"/>
     </row>
-    <row r="180" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A180" s="17"/>
       <c r="B180" s="11"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10182,7 +10493,8 @@
       <c r="AS180" s="1"/>
       <c r="AT180" s="1"/>
     </row>
-    <row r="181" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A181" s="17"/>
       <c r="B181" s="11"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10229,7 +10541,8 @@
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
     </row>
-    <row r="182" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A182" s="17"/>
       <c r="B182" s="11"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10276,7 +10589,8 @@
       <c r="AS182" s="1"/>
       <c r="AT182" s="1"/>
     </row>
-    <row r="183" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A183" s="17"/>
       <c r="B183" s="11"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10323,7 +10637,8 @@
       <c r="AS183" s="1"/>
       <c r="AT183" s="1"/>
     </row>
-    <row r="184" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A184" s="17"/>
       <c r="B184" s="11"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10370,7 +10685,8 @@
       <c r="AS184" s="1"/>
       <c r="AT184" s="1"/>
     </row>
-    <row r="185" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A185" s="17"/>
       <c r="B185" s="11"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10417,7 +10733,8 @@
       <c r="AS185" s="1"/>
       <c r="AT185" s="1"/>
     </row>
-    <row r="186" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A186" s="17"/>
       <c r="B186" s="11"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10464,7 +10781,8 @@
       <c r="AS186" s="1"/>
       <c r="AT186" s="1"/>
     </row>
-    <row r="187" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A187" s="17"/>
       <c r="B187" s="11"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10511,7 +10829,8 @@
       <c r="AS187" s="1"/>
       <c r="AT187" s="1"/>
     </row>
-    <row r="188" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A188" s="17"/>
       <c r="B188" s="11"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10558,7 +10877,8 @@
       <c r="AS188" s="1"/>
       <c r="AT188" s="1"/>
     </row>
-    <row r="189" spans="2:46" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A189" s="17"/>
       <c r="B189" s="13"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
@@ -10605,52 +10925,3581 @@
       <c r="AS189" s="1"/>
       <c r="AT189" s="1"/>
     </row>
-    <row r="190" spans="2:46" x14ac:dyDescent="0.4">
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
-      <c r="T190" s="7"/>
-      <c r="U190" s="7"/>
-      <c r="V190" s="7"/>
-      <c r="W190" s="7"/>
-      <c r="X190" s="7"/>
-      <c r="Y190" s="7"/>
-      <c r="Z190" s="7"/>
-      <c r="AA190" s="1"/>
-      <c r="AB190" s="7"/>
-      <c r="AC190" s="7"/>
-      <c r="AD190" s="7"/>
-      <c r="AE190" s="7"/>
-      <c r="AF190" s="7"/>
-      <c r="AG190" s="7"/>
-      <c r="AH190" s="7"/>
-      <c r="AI190" s="7"/>
-      <c r="AJ190" s="7"/>
-      <c r="AK190" s="7"/>
-      <c r="AL190" s="7"/>
-      <c r="AM190" s="7"/>
-      <c r="AN190" s="1"/>
-      <c r="AO190" s="1"/>
-      <c r="AP190" s="1"/>
-      <c r="AQ190" s="1"/>
-      <c r="AR190" s="1"/>
-      <c r="AS190" s="1"/>
-      <c r="AT190" s="1"/>
+    <row r="190" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A190" s="18"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="19"/>
+      <c r="T190" s="19"/>
+      <c r="U190" s="19"/>
+      <c r="V190" s="19"/>
+      <c r="W190" s="19"/>
+      <c r="X190" s="19"/>
+      <c r="Y190" s="19"/>
+      <c r="Z190" s="19"/>
+      <c r="AA190" s="6"/>
+      <c r="AB190" s="19"/>
+      <c r="AC190" s="19"/>
+      <c r="AD190" s="19"/>
+      <c r="AE190" s="19"/>
+      <c r="AF190" s="19"/>
+      <c r="AG190" s="19"/>
+      <c r="AH190" s="19"/>
+      <c r="AI190" s="19"/>
+      <c r="AJ190" s="19"/>
+      <c r="AK190" s="19"/>
+      <c r="AL190" s="19"/>
+      <c r="AM190" s="19"/>
+      <c r="AN190" s="6"/>
+      <c r="AO190" s="6"/>
+      <c r="AP190" s="6"/>
+      <c r="AQ190" s="6"/>
+      <c r="AR190" s="6"/>
+      <c r="AS190" s="6"/>
+      <c r="AT190" s="6"/>
+    </row>
+    <row r="191" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
+      <c r="Y191" s="1"/>
+      <c r="Z191" s="1"/>
+      <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
+      <c r="AC191" s="1"/>
+      <c r="AD191" s="1"/>
+      <c r="AE191" s="1"/>
+      <c r="AF191" s="1"/>
+      <c r="AG191" s="1"/>
+      <c r="AH191" s="1"/>
+      <c r="AI191" s="1"/>
+      <c r="AJ191" s="1"/>
+      <c r="AK191" s="1"/>
+      <c r="AL191" s="1"/>
+      <c r="AM191" s="1"/>
+      <c r="AN191" s="1"/>
+      <c r="AO191" s="1"/>
+      <c r="AP191" s="1"/>
+      <c r="AQ191" s="1"/>
+      <c r="AR191" s="1"/>
+      <c r="AS191" s="1"/>
+      <c r="AT191" s="1"/>
+      <c r="AU191" s="1"/>
+    </row>
+    <row r="192" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+      <c r="Y192" s="1"/>
+      <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1"/>
+      <c r="AE192" s="1"/>
+      <c r="AF192" s="1"/>
+      <c r="AG192" s="1"/>
+      <c r="AH192" s="1"/>
+      <c r="AI192" s="1"/>
+      <c r="AJ192" s="1"/>
+      <c r="AK192" s="1"/>
+      <c r="AL192" s="1"/>
+      <c r="AM192" s="1"/>
+      <c r="AN192" s="1"/>
+      <c r="AO192" s="1"/>
+      <c r="AP192" s="1"/>
+      <c r="AQ192" s="1"/>
+      <c r="AR192" s="1"/>
+      <c r="AS192" s="1"/>
+      <c r="AT192" s="1"/>
+      <c r="AU192" s="1"/>
+    </row>
+    <row r="193" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
+      <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
+      <c r="AC193" s="1"/>
+      <c r="AD193" s="1"/>
+      <c r="AE193" s="1"/>
+      <c r="AF193" s="1"/>
+      <c r="AG193" s="1"/>
+      <c r="AH193" s="1"/>
+      <c r="AI193" s="1"/>
+      <c r="AJ193" s="1"/>
+      <c r="AK193" s="1"/>
+      <c r="AL193" s="1"/>
+      <c r="AM193" s="1"/>
+      <c r="AN193" s="1"/>
+      <c r="AO193" s="1"/>
+      <c r="AP193" s="1"/>
+      <c r="AQ193" s="1"/>
+      <c r="AR193" s="1"/>
+      <c r="AS193" s="1"/>
+      <c r="AT193" s="1"/>
+      <c r="AU193" s="1"/>
+    </row>
+    <row r="194" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1"/>
+      <c r="AH194" s="1"/>
+      <c r="AI194" s="1"/>
+      <c r="AJ194" s="1"/>
+      <c r="AK194" s="1"/>
+      <c r="AL194" s="1"/>
+      <c r="AM194" s="1"/>
+      <c r="AN194" s="1"/>
+      <c r="AO194" s="1"/>
+      <c r="AP194" s="1"/>
+      <c r="AQ194" s="1"/>
+      <c r="AR194" s="1"/>
+      <c r="AS194" s="1"/>
+      <c r="AT194" s="1"/>
+      <c r="AU194" s="1"/>
+    </row>
+    <row r="195" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+      <c r="Y195" s="1"/>
+      <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1"/>
+      <c r="AE195" s="1"/>
+      <c r="AF195" s="1"/>
+      <c r="AG195" s="1"/>
+      <c r="AH195" s="1"/>
+      <c r="AI195" s="1"/>
+      <c r="AJ195" s="1"/>
+      <c r="AK195" s="1"/>
+      <c r="AL195" s="1"/>
+      <c r="AM195" s="1"/>
+      <c r="AN195" s="1"/>
+      <c r="AO195" s="1"/>
+      <c r="AP195" s="1"/>
+      <c r="AQ195" s="1"/>
+      <c r="AR195" s="1"/>
+      <c r="AS195" s="1"/>
+      <c r="AT195" s="1"/>
+      <c r="AU195" s="1"/>
+    </row>
+    <row r="196" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+      <c r="AH196" s="1"/>
+      <c r="AI196" s="1"/>
+      <c r="AJ196" s="1"/>
+      <c r="AK196" s="1"/>
+      <c r="AL196" s="1"/>
+      <c r="AM196" s="1"/>
+      <c r="AN196" s="1"/>
+      <c r="AO196" s="1"/>
+      <c r="AP196" s="1"/>
+      <c r="AQ196" s="1"/>
+      <c r="AR196" s="1"/>
+      <c r="AS196" s="1"/>
+      <c r="AT196" s="1"/>
+      <c r="AU196" s="1"/>
+    </row>
+    <row r="197" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="1"/>
+      <c r="Z197" s="1"/>
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
+      <c r="AD197" s="1"/>
+      <c r="AE197" s="1"/>
+      <c r="AF197" s="1"/>
+      <c r="AG197" s="1"/>
+      <c r="AH197" s="1"/>
+      <c r="AI197" s="1"/>
+      <c r="AJ197" s="1"/>
+      <c r="AK197" s="1"/>
+      <c r="AL197" s="1"/>
+      <c r="AM197" s="1"/>
+      <c r="AN197" s="1"/>
+      <c r="AO197" s="1"/>
+      <c r="AP197" s="1"/>
+      <c r="AQ197" s="1"/>
+      <c r="AR197" s="1"/>
+      <c r="AS197" s="1"/>
+      <c r="AT197" s="1"/>
+      <c r="AU197" s="1"/>
+    </row>
+    <row r="198" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+      <c r="Y198" s="1"/>
+      <c r="Z198" s="1"/>
+      <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1"/>
+      <c r="AE198" s="1"/>
+      <c r="AF198" s="1"/>
+      <c r="AG198" s="1"/>
+      <c r="AH198" s="1"/>
+      <c r="AI198" s="1"/>
+      <c r="AJ198" s="1"/>
+      <c r="AK198" s="1"/>
+      <c r="AL198" s="1"/>
+      <c r="AM198" s="1"/>
+      <c r="AN198" s="1"/>
+      <c r="AO198" s="1"/>
+      <c r="AP198" s="1"/>
+      <c r="AQ198" s="1"/>
+      <c r="AR198" s="1"/>
+      <c r="AS198" s="1"/>
+      <c r="AT198" s="1"/>
+      <c r="AU198" s="1"/>
+    </row>
+    <row r="199" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
+      <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
+      <c r="AC199" s="1"/>
+      <c r="AD199" s="1"/>
+      <c r="AE199" s="1"/>
+      <c r="AF199" s="1"/>
+      <c r="AG199" s="1"/>
+      <c r="AH199" s="1"/>
+      <c r="AI199" s="1"/>
+      <c r="AJ199" s="1"/>
+      <c r="AK199" s="1"/>
+      <c r="AL199" s="1"/>
+      <c r="AM199" s="1"/>
+      <c r="AN199" s="1"/>
+      <c r="AO199" s="1"/>
+      <c r="AP199" s="1"/>
+      <c r="AQ199" s="1"/>
+      <c r="AR199" s="1"/>
+      <c r="AS199" s="1"/>
+      <c r="AT199" s="1"/>
+      <c r="AU199" s="1"/>
+    </row>
+    <row r="200" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+      <c r="Y200" s="1"/>
+      <c r="Z200" s="1"/>
+      <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
+      <c r="AC200" s="1"/>
+      <c r="AD200" s="1"/>
+      <c r="AE200" s="1"/>
+      <c r="AF200" s="1"/>
+      <c r="AG200" s="1"/>
+      <c r="AH200" s="1"/>
+      <c r="AI200" s="1"/>
+      <c r="AJ200" s="1"/>
+      <c r="AK200" s="1"/>
+      <c r="AL200" s="1"/>
+      <c r="AM200" s="1"/>
+      <c r="AN200" s="1"/>
+      <c r="AO200" s="1"/>
+      <c r="AP200" s="1"/>
+      <c r="AQ200" s="1"/>
+      <c r="AR200" s="1"/>
+      <c r="AS200" s="1"/>
+      <c r="AT200" s="1"/>
+      <c r="AU200" s="1"/>
+    </row>
+    <row r="201" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="1"/>
+      <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
+      <c r="AC201" s="1"/>
+      <c r="AD201" s="1"/>
+      <c r="AE201" s="1"/>
+      <c r="AF201" s="1"/>
+      <c r="AG201" s="1"/>
+      <c r="AH201" s="1"/>
+      <c r="AI201" s="1"/>
+      <c r="AJ201" s="1"/>
+      <c r="AK201" s="1"/>
+      <c r="AL201" s="1"/>
+      <c r="AM201" s="1"/>
+      <c r="AN201" s="1"/>
+      <c r="AO201" s="1"/>
+      <c r="AP201" s="1"/>
+      <c r="AQ201" s="1"/>
+      <c r="AR201" s="1"/>
+      <c r="AS201" s="1"/>
+      <c r="AT201" s="1"/>
+      <c r="AU201" s="1"/>
+    </row>
+    <row r="202" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+      <c r="Y202" s="1"/>
+      <c r="Z202" s="1"/>
+      <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
+      <c r="AC202" s="1"/>
+      <c r="AD202" s="1"/>
+      <c r="AE202" s="1"/>
+      <c r="AF202" s="1"/>
+      <c r="AG202" s="1"/>
+      <c r="AH202" s="1"/>
+      <c r="AI202" s="1"/>
+      <c r="AJ202" s="1"/>
+      <c r="AK202" s="1"/>
+      <c r="AL202" s="1"/>
+      <c r="AM202" s="1"/>
+      <c r="AN202" s="1"/>
+      <c r="AO202" s="1"/>
+      <c r="AP202" s="1"/>
+      <c r="AQ202" s="1"/>
+      <c r="AR202" s="1"/>
+      <c r="AS202" s="1"/>
+      <c r="AT202" s="1"/>
+      <c r="AU202" s="1"/>
+    </row>
+    <row r="203" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
+      <c r="Y203" s="1"/>
+      <c r="Z203" s="1"/>
+      <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
+      <c r="AC203" s="1"/>
+      <c r="AD203" s="1"/>
+      <c r="AE203" s="1"/>
+      <c r="AF203" s="1"/>
+      <c r="AG203" s="1"/>
+      <c r="AH203" s="1"/>
+      <c r="AI203" s="1"/>
+      <c r="AJ203" s="1"/>
+      <c r="AK203" s="1"/>
+      <c r="AL203" s="1"/>
+      <c r="AM203" s="1"/>
+      <c r="AN203" s="1"/>
+      <c r="AO203" s="1"/>
+      <c r="AP203" s="1"/>
+      <c r="AQ203" s="1"/>
+      <c r="AR203" s="1"/>
+      <c r="AS203" s="1"/>
+      <c r="AT203" s="1"/>
+      <c r="AU203" s="1"/>
+    </row>
+    <row r="204" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
+      <c r="Z204" s="1"/>
+      <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
+      <c r="AC204" s="1"/>
+      <c r="AD204" s="1"/>
+      <c r="AE204" s="1"/>
+      <c r="AF204" s="1"/>
+      <c r="AG204" s="1"/>
+      <c r="AH204" s="1"/>
+      <c r="AI204" s="1"/>
+      <c r="AJ204" s="1"/>
+      <c r="AK204" s="1"/>
+      <c r="AL204" s="1"/>
+      <c r="AM204" s="1"/>
+      <c r="AN204" s="1"/>
+      <c r="AO204" s="1"/>
+      <c r="AP204" s="1"/>
+      <c r="AQ204" s="1"/>
+      <c r="AR204" s="1"/>
+      <c r="AS204" s="1"/>
+      <c r="AT204" s="1"/>
+      <c r="AU204" s="1"/>
+    </row>
+    <row r="205" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
+      <c r="Y205" s="1"/>
+      <c r="Z205" s="1"/>
+      <c r="AA205" s="1"/>
+      <c r="AB205" s="1"/>
+      <c r="AC205" s="1"/>
+      <c r="AD205" s="1"/>
+      <c r="AE205" s="1"/>
+      <c r="AF205" s="1"/>
+      <c r="AG205" s="1"/>
+      <c r="AH205" s="1"/>
+      <c r="AI205" s="1"/>
+      <c r="AJ205" s="1"/>
+      <c r="AK205" s="1"/>
+      <c r="AL205" s="1"/>
+      <c r="AM205" s="1"/>
+      <c r="AN205" s="1"/>
+      <c r="AO205" s="1"/>
+      <c r="AP205" s="1"/>
+      <c r="AQ205" s="1"/>
+      <c r="AR205" s="1"/>
+      <c r="AS205" s="1"/>
+      <c r="AT205" s="1"/>
+      <c r="AU205" s="1"/>
+    </row>
+    <row r="206" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
+      <c r="Y206" s="1"/>
+      <c r="Z206" s="1"/>
+      <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
+      <c r="AC206" s="1"/>
+      <c r="AD206" s="1"/>
+      <c r="AE206" s="1"/>
+      <c r="AF206" s="1"/>
+      <c r="AG206" s="1"/>
+      <c r="AH206" s="1"/>
+      <c r="AI206" s="1"/>
+      <c r="AJ206" s="1"/>
+      <c r="AK206" s="1"/>
+      <c r="AL206" s="1"/>
+      <c r="AM206" s="1"/>
+      <c r="AN206" s="1"/>
+      <c r="AO206" s="1"/>
+      <c r="AP206" s="1"/>
+      <c r="AQ206" s="1"/>
+      <c r="AR206" s="1"/>
+      <c r="AS206" s="1"/>
+      <c r="AT206" s="1"/>
+      <c r="AU206" s="1"/>
+    </row>
+    <row r="207" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
+      <c r="Y207" s="1"/>
+      <c r="Z207" s="1"/>
+      <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
+      <c r="AC207" s="1"/>
+      <c r="AD207" s="1"/>
+      <c r="AE207" s="1"/>
+      <c r="AF207" s="1"/>
+      <c r="AG207" s="1"/>
+      <c r="AH207" s="1"/>
+      <c r="AI207" s="1"/>
+      <c r="AJ207" s="1"/>
+      <c r="AK207" s="1"/>
+      <c r="AL207" s="1"/>
+      <c r="AM207" s="1"/>
+      <c r="AN207" s="1"/>
+      <c r="AO207" s="1"/>
+      <c r="AP207" s="1"/>
+      <c r="AQ207" s="1"/>
+      <c r="AR207" s="1"/>
+      <c r="AS207" s="1"/>
+      <c r="AT207" s="1"/>
+      <c r="AU207" s="1"/>
+    </row>
+    <row r="208" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
+      <c r="Y208" s="1"/>
+      <c r="Z208" s="1"/>
+      <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
+      <c r="AC208" s="1"/>
+      <c r="AD208" s="1"/>
+      <c r="AE208" s="1"/>
+      <c r="AF208" s="1"/>
+      <c r="AG208" s="1"/>
+      <c r="AH208" s="1"/>
+      <c r="AI208" s="1"/>
+      <c r="AJ208" s="1"/>
+      <c r="AK208" s="1"/>
+      <c r="AL208" s="1"/>
+      <c r="AM208" s="1"/>
+      <c r="AN208" s="1"/>
+      <c r="AO208" s="1"/>
+      <c r="AP208" s="1"/>
+      <c r="AQ208" s="1"/>
+      <c r="AR208" s="1"/>
+      <c r="AS208" s="1"/>
+      <c r="AT208" s="1"/>
+      <c r="AU208" s="1"/>
+    </row>
+    <row r="209" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
+      <c r="AD209" s="1"/>
+      <c r="AE209" s="1"/>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+      <c r="AH209" s="1"/>
+      <c r="AI209" s="1"/>
+      <c r="AJ209" s="1"/>
+      <c r="AK209" s="1"/>
+      <c r="AL209" s="1"/>
+      <c r="AM209" s="1"/>
+      <c r="AN209" s="1"/>
+      <c r="AO209" s="1"/>
+      <c r="AP209" s="1"/>
+      <c r="AQ209" s="1"/>
+      <c r="AR209" s="1"/>
+      <c r="AS209" s="1"/>
+      <c r="AT209" s="1"/>
+      <c r="AU209" s="1"/>
+    </row>
+    <row r="210" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1"/>
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+      <c r="AH210" s="1"/>
+      <c r="AI210" s="1"/>
+      <c r="AJ210" s="1"/>
+      <c r="AK210" s="1"/>
+      <c r="AL210" s="1"/>
+      <c r="AM210" s="1"/>
+      <c r="AN210" s="1"/>
+      <c r="AO210" s="1"/>
+      <c r="AP210" s="1"/>
+      <c r="AQ210" s="1"/>
+      <c r="AR210" s="1"/>
+      <c r="AS210" s="1"/>
+      <c r="AT210" s="1"/>
+      <c r="AU210" s="1"/>
+    </row>
+    <row r="211" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+      <c r="AH211" s="1"/>
+      <c r="AI211" s="1"/>
+      <c r="AJ211" s="1"/>
+      <c r="AK211" s="1"/>
+      <c r="AL211" s="1"/>
+      <c r="AM211" s="1"/>
+      <c r="AN211" s="1"/>
+      <c r="AO211" s="1"/>
+      <c r="AP211" s="1"/>
+      <c r="AQ211" s="1"/>
+      <c r="AR211" s="1"/>
+      <c r="AS211" s="1"/>
+      <c r="AT211" s="1"/>
+      <c r="AU211" s="1"/>
+    </row>
+    <row r="212" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
+      <c r="AD212" s="1"/>
+      <c r="AE212" s="1"/>
+      <c r="AF212" s="1"/>
+      <c r="AG212" s="1"/>
+      <c r="AH212" s="1"/>
+      <c r="AI212" s="1"/>
+      <c r="AJ212" s="1"/>
+      <c r="AK212" s="1"/>
+      <c r="AL212" s="1"/>
+      <c r="AM212" s="1"/>
+      <c r="AN212" s="1"/>
+      <c r="AO212" s="1"/>
+      <c r="AP212" s="1"/>
+      <c r="AQ212" s="1"/>
+      <c r="AR212" s="1"/>
+      <c r="AS212" s="1"/>
+      <c r="AT212" s="1"/>
+      <c r="AU212" s="1"/>
+    </row>
+    <row r="213" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+      <c r="Y213" s="1"/>
+      <c r="Z213" s="1"/>
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
+      <c r="AD213" s="1"/>
+      <c r="AE213" s="1"/>
+      <c r="AF213" s="1"/>
+      <c r="AG213" s="1"/>
+      <c r="AH213" s="1"/>
+      <c r="AI213" s="1"/>
+      <c r="AJ213" s="1"/>
+      <c r="AK213" s="1"/>
+      <c r="AL213" s="1"/>
+      <c r="AM213" s="1"/>
+      <c r="AN213" s="1"/>
+      <c r="AO213" s="1"/>
+      <c r="AP213" s="1"/>
+      <c r="AQ213" s="1"/>
+      <c r="AR213" s="1"/>
+      <c r="AS213" s="1"/>
+      <c r="AT213" s="1"/>
+      <c r="AU213" s="1"/>
+    </row>
+    <row r="214" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1"/>
+      <c r="AE214" s="1"/>
+      <c r="AF214" s="1"/>
+      <c r="AG214" s="1"/>
+      <c r="AH214" s="1"/>
+      <c r="AI214" s="1"/>
+      <c r="AJ214" s="1"/>
+      <c r="AK214" s="1"/>
+      <c r="AL214" s="1"/>
+      <c r="AM214" s="1"/>
+      <c r="AN214" s="1"/>
+      <c r="AO214" s="1"/>
+      <c r="AP214" s="1"/>
+      <c r="AQ214" s="1"/>
+      <c r="AR214" s="1"/>
+      <c r="AS214" s="1"/>
+      <c r="AT214" s="1"/>
+      <c r="AU214" s="1"/>
+    </row>
+    <row r="215" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="1"/>
+      <c r="Z215" s="1"/>
+      <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
+      <c r="AC215" s="1"/>
+      <c r="AD215" s="1"/>
+      <c r="AE215" s="1"/>
+      <c r="AF215" s="1"/>
+      <c r="AG215" s="1"/>
+      <c r="AH215" s="1"/>
+      <c r="AI215" s="1"/>
+      <c r="AJ215" s="1"/>
+      <c r="AK215" s="1"/>
+      <c r="AL215" s="1"/>
+      <c r="AM215" s="1"/>
+      <c r="AN215" s="1"/>
+      <c r="AO215" s="1"/>
+      <c r="AP215" s="1"/>
+      <c r="AQ215" s="1"/>
+      <c r="AR215" s="1"/>
+      <c r="AS215" s="1"/>
+      <c r="AT215" s="1"/>
+      <c r="AU215" s="1"/>
+    </row>
+    <row r="216" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="1"/>
+      <c r="Z216" s="1"/>
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
+      <c r="AD216" s="1"/>
+      <c r="AE216" s="1"/>
+      <c r="AF216" s="1"/>
+      <c r="AG216" s="1"/>
+      <c r="AH216" s="1"/>
+      <c r="AI216" s="1"/>
+      <c r="AJ216" s="1"/>
+      <c r="AK216" s="1"/>
+      <c r="AL216" s="1"/>
+      <c r="AM216" s="1"/>
+      <c r="AN216" s="1"/>
+      <c r="AO216" s="1"/>
+      <c r="AP216" s="1"/>
+      <c r="AQ216" s="1"/>
+      <c r="AR216" s="1"/>
+      <c r="AS216" s="1"/>
+      <c r="AT216" s="1"/>
+      <c r="AU216" s="1"/>
+    </row>
+    <row r="217" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
+      <c r="Z217" s="1"/>
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
+      <c r="AD217" s="1"/>
+      <c r="AE217" s="1"/>
+      <c r="AF217" s="1"/>
+      <c r="AG217" s="1"/>
+      <c r="AH217" s="1"/>
+      <c r="AI217" s="1"/>
+      <c r="AJ217" s="1"/>
+      <c r="AK217" s="1"/>
+      <c r="AL217" s="1"/>
+      <c r="AM217" s="1"/>
+      <c r="AN217" s="1"/>
+      <c r="AO217" s="1"/>
+      <c r="AP217" s="1"/>
+      <c r="AQ217" s="1"/>
+      <c r="AR217" s="1"/>
+      <c r="AS217" s="1"/>
+      <c r="AT217" s="1"/>
+      <c r="AU217" s="1"/>
+    </row>
+    <row r="218" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+      <c r="Y218" s="1"/>
+      <c r="Z218" s="1"/>
+      <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
+      <c r="AC218" s="1"/>
+      <c r="AD218" s="1"/>
+      <c r="AE218" s="1"/>
+      <c r="AF218" s="1"/>
+      <c r="AG218" s="1"/>
+      <c r="AH218" s="1"/>
+      <c r="AI218" s="1"/>
+      <c r="AJ218" s="1"/>
+      <c r="AK218" s="1"/>
+      <c r="AL218" s="1"/>
+      <c r="AM218" s="1"/>
+      <c r="AN218" s="1"/>
+      <c r="AO218" s="1"/>
+      <c r="AP218" s="1"/>
+      <c r="AQ218" s="1"/>
+      <c r="AR218" s="1"/>
+      <c r="AS218" s="1"/>
+      <c r="AT218" s="1"/>
+      <c r="AU218" s="1"/>
+    </row>
+    <row r="219" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
+      <c r="AD219" s="1"/>
+      <c r="AE219" s="1"/>
+      <c r="AF219" s="1"/>
+      <c r="AG219" s="1"/>
+      <c r="AH219" s="1"/>
+      <c r="AI219" s="1"/>
+      <c r="AJ219" s="1"/>
+      <c r="AK219" s="1"/>
+      <c r="AL219" s="1"/>
+      <c r="AM219" s="1"/>
+      <c r="AN219" s="1"/>
+      <c r="AO219" s="1"/>
+      <c r="AP219" s="1"/>
+      <c r="AQ219" s="1"/>
+      <c r="AR219" s="1"/>
+      <c r="AS219" s="1"/>
+      <c r="AT219" s="1"/>
+      <c r="AU219" s="1"/>
+    </row>
+    <row r="220" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
+      <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
+      <c r="AC220" s="1"/>
+      <c r="AD220" s="1"/>
+      <c r="AE220" s="1"/>
+      <c r="AF220" s="1"/>
+      <c r="AG220" s="1"/>
+      <c r="AH220" s="1"/>
+      <c r="AI220" s="1"/>
+      <c r="AJ220" s="1"/>
+      <c r="AK220" s="1"/>
+      <c r="AL220" s="1"/>
+      <c r="AM220" s="1"/>
+      <c r="AN220" s="1"/>
+      <c r="AO220" s="1"/>
+      <c r="AP220" s="1"/>
+      <c r="AQ220" s="1"/>
+      <c r="AR220" s="1"/>
+      <c r="AS220" s="1"/>
+      <c r="AT220" s="1"/>
+      <c r="AU220" s="1"/>
+    </row>
+    <row r="221" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
+      <c r="AA221" s="1"/>
+      <c r="AB221" s="1"/>
+      <c r="AC221" s="1"/>
+      <c r="AD221" s="1"/>
+      <c r="AE221" s="1"/>
+      <c r="AF221" s="1"/>
+      <c r="AG221" s="1"/>
+      <c r="AH221" s="1"/>
+      <c r="AI221" s="1"/>
+      <c r="AJ221" s="1"/>
+      <c r="AK221" s="1"/>
+      <c r="AL221" s="1"/>
+      <c r="AM221" s="1"/>
+      <c r="AN221" s="1"/>
+      <c r="AO221" s="1"/>
+      <c r="AP221" s="1"/>
+      <c r="AQ221" s="1"/>
+      <c r="AR221" s="1"/>
+      <c r="AS221" s="1"/>
+      <c r="AT221" s="1"/>
+      <c r="AU221" s="1"/>
+    </row>
+    <row r="222" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
+      <c r="AA222" s="1"/>
+      <c r="AB222" s="1"/>
+      <c r="AC222" s="1"/>
+      <c r="AD222" s="1"/>
+      <c r="AE222" s="1"/>
+      <c r="AF222" s="1"/>
+      <c r="AG222" s="1"/>
+      <c r="AH222" s="1"/>
+      <c r="AI222" s="1"/>
+      <c r="AJ222" s="1"/>
+      <c r="AK222" s="1"/>
+      <c r="AL222" s="1"/>
+      <c r="AM222" s="1"/>
+      <c r="AN222" s="1"/>
+      <c r="AO222" s="1"/>
+      <c r="AP222" s="1"/>
+      <c r="AQ222" s="1"/>
+      <c r="AR222" s="1"/>
+      <c r="AS222" s="1"/>
+      <c r="AT222" s="1"/>
+      <c r="AU222" s="1"/>
+    </row>
+    <row r="223" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
+      <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
+      <c r="AC223" s="1"/>
+      <c r="AD223" s="1"/>
+      <c r="AE223" s="1"/>
+      <c r="AF223" s="1"/>
+      <c r="AG223" s="1"/>
+      <c r="AH223" s="1"/>
+      <c r="AI223" s="1"/>
+      <c r="AJ223" s="1"/>
+      <c r="AK223" s="1"/>
+      <c r="AL223" s="1"/>
+      <c r="AM223" s="1"/>
+      <c r="AN223" s="1"/>
+      <c r="AO223" s="1"/>
+      <c r="AP223" s="1"/>
+      <c r="AQ223" s="1"/>
+      <c r="AR223" s="1"/>
+      <c r="AS223" s="1"/>
+      <c r="AT223" s="1"/>
+      <c r="AU223" s="1"/>
+    </row>
+    <row r="224" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+      <c r="Y224" s="1"/>
+      <c r="Z224" s="1"/>
+      <c r="AA224" s="1"/>
+      <c r="AB224" s="1"/>
+      <c r="AC224" s="1"/>
+      <c r="AD224" s="1"/>
+      <c r="AE224" s="1"/>
+      <c r="AF224" s="1"/>
+      <c r="AG224" s="1"/>
+      <c r="AH224" s="1"/>
+      <c r="AI224" s="1"/>
+      <c r="AJ224" s="1"/>
+      <c r="AK224" s="1"/>
+      <c r="AL224" s="1"/>
+      <c r="AM224" s="1"/>
+      <c r="AN224" s="1"/>
+      <c r="AO224" s="1"/>
+      <c r="AP224" s="1"/>
+      <c r="AQ224" s="1"/>
+      <c r="AR224" s="1"/>
+      <c r="AS224" s="1"/>
+      <c r="AT224" s="1"/>
+      <c r="AU224" s="1"/>
+    </row>
+    <row r="225" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+      <c r="Y225" s="1"/>
+      <c r="Z225" s="1"/>
+      <c r="AA225" s="1"/>
+      <c r="AB225" s="1"/>
+      <c r="AC225" s="1"/>
+      <c r="AD225" s="1"/>
+      <c r="AE225" s="1"/>
+      <c r="AF225" s="1"/>
+      <c r="AG225" s="1"/>
+      <c r="AH225" s="1"/>
+      <c r="AI225" s="1"/>
+      <c r="AJ225" s="1"/>
+      <c r="AK225" s="1"/>
+      <c r="AL225" s="1"/>
+      <c r="AM225" s="1"/>
+      <c r="AN225" s="1"/>
+      <c r="AO225" s="1"/>
+      <c r="AP225" s="1"/>
+      <c r="AQ225" s="1"/>
+      <c r="AR225" s="1"/>
+      <c r="AS225" s="1"/>
+      <c r="AT225" s="1"/>
+      <c r="AU225" s="1"/>
+    </row>
+    <row r="226" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+      <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
+      <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
+      <c r="AC226" s="1"/>
+      <c r="AD226" s="1"/>
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
+      <c r="AH226" s="1"/>
+      <c r="AI226" s="1"/>
+      <c r="AJ226" s="1"/>
+      <c r="AK226" s="1"/>
+      <c r="AL226" s="1"/>
+      <c r="AM226" s="1"/>
+      <c r="AN226" s="1"/>
+      <c r="AO226" s="1"/>
+      <c r="AP226" s="1"/>
+      <c r="AQ226" s="1"/>
+      <c r="AR226" s="1"/>
+      <c r="AS226" s="1"/>
+      <c r="AT226" s="1"/>
+      <c r="AU226" s="1"/>
+    </row>
+    <row r="227" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
+      <c r="AD227" s="1"/>
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
+      <c r="AH227" s="1"/>
+      <c r="AI227" s="1"/>
+      <c r="AJ227" s="1"/>
+      <c r="AK227" s="1"/>
+      <c r="AL227" s="1"/>
+      <c r="AM227" s="1"/>
+      <c r="AN227" s="1"/>
+      <c r="AO227" s="1"/>
+      <c r="AP227" s="1"/>
+      <c r="AQ227" s="1"/>
+      <c r="AR227" s="1"/>
+      <c r="AS227" s="1"/>
+      <c r="AT227" s="1"/>
+      <c r="AU227" s="1"/>
+    </row>
+    <row r="228" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+      <c r="Y228" s="1"/>
+      <c r="Z228" s="1"/>
+      <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
+      <c r="AC228" s="1"/>
+      <c r="AD228" s="1"/>
+      <c r="AE228" s="1"/>
+      <c r="AF228" s="1"/>
+      <c r="AG228" s="1"/>
+      <c r="AH228" s="1"/>
+      <c r="AI228" s="1"/>
+      <c r="AJ228" s="1"/>
+      <c r="AK228" s="1"/>
+      <c r="AL228" s="1"/>
+      <c r="AM228" s="1"/>
+      <c r="AN228" s="1"/>
+      <c r="AO228" s="1"/>
+      <c r="AP228" s="1"/>
+      <c r="AQ228" s="1"/>
+      <c r="AR228" s="1"/>
+      <c r="AS228" s="1"/>
+      <c r="AT228" s="1"/>
+      <c r="AU228" s="1"/>
+    </row>
+    <row r="229" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
+      <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
+      <c r="AC229" s="1"/>
+      <c r="AD229" s="1"/>
+      <c r="AE229" s="1"/>
+      <c r="AF229" s="1"/>
+      <c r="AG229" s="1"/>
+      <c r="AH229" s="1"/>
+      <c r="AI229" s="1"/>
+      <c r="AJ229" s="1"/>
+      <c r="AK229" s="1"/>
+      <c r="AL229" s="1"/>
+      <c r="AM229" s="1"/>
+      <c r="AN229" s="1"/>
+      <c r="AO229" s="1"/>
+      <c r="AP229" s="1"/>
+      <c r="AQ229" s="1"/>
+      <c r="AR229" s="1"/>
+      <c r="AS229" s="1"/>
+      <c r="AT229" s="1"/>
+      <c r="AU229" s="1"/>
+    </row>
+    <row r="230" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
+      <c r="AE230" s="1"/>
+      <c r="AF230" s="1"/>
+      <c r="AG230" s="1"/>
+      <c r="AH230" s="1"/>
+      <c r="AI230" s="1"/>
+      <c r="AJ230" s="1"/>
+      <c r="AK230" s="1"/>
+      <c r="AL230" s="1"/>
+      <c r="AM230" s="1"/>
+      <c r="AN230" s="1"/>
+      <c r="AO230" s="1"/>
+      <c r="AP230" s="1"/>
+      <c r="AQ230" s="1"/>
+      <c r="AR230" s="1"/>
+      <c r="AS230" s="1"/>
+      <c r="AT230" s="1"/>
+      <c r="AU230" s="1"/>
+    </row>
+    <row r="231" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
+      <c r="AH231" s="1"/>
+      <c r="AI231" s="1"/>
+      <c r="AJ231" s="1"/>
+      <c r="AK231" s="1"/>
+      <c r="AL231" s="1"/>
+      <c r="AM231" s="1"/>
+      <c r="AN231" s="1"/>
+      <c r="AO231" s="1"/>
+      <c r="AP231" s="1"/>
+      <c r="AQ231" s="1"/>
+      <c r="AR231" s="1"/>
+      <c r="AS231" s="1"/>
+      <c r="AT231" s="1"/>
+      <c r="AU231" s="1"/>
+    </row>
+    <row r="232" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
+      <c r="AH232" s="1"/>
+      <c r="AI232" s="1"/>
+      <c r="AJ232" s="1"/>
+      <c r="AK232" s="1"/>
+      <c r="AL232" s="1"/>
+      <c r="AM232" s="1"/>
+      <c r="AN232" s="1"/>
+      <c r="AO232" s="1"/>
+      <c r="AP232" s="1"/>
+      <c r="AQ232" s="1"/>
+      <c r="AR232" s="1"/>
+      <c r="AS232" s="1"/>
+      <c r="AT232" s="1"/>
+      <c r="AU232" s="1"/>
+    </row>
+    <row r="233" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
+      <c r="AH233" s="1"/>
+      <c r="AI233" s="1"/>
+      <c r="AJ233" s="1"/>
+      <c r="AK233" s="1"/>
+      <c r="AL233" s="1"/>
+      <c r="AM233" s="1"/>
+      <c r="AN233" s="1"/>
+      <c r="AO233" s="1"/>
+      <c r="AP233" s="1"/>
+      <c r="AQ233" s="1"/>
+      <c r="AR233" s="1"/>
+      <c r="AS233" s="1"/>
+      <c r="AT233" s="1"/>
+      <c r="AU233" s="1"/>
+    </row>
+    <row r="234" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
+      <c r="AH234" s="1"/>
+      <c r="AI234" s="1"/>
+      <c r="AJ234" s="1"/>
+      <c r="AK234" s="1"/>
+      <c r="AL234" s="1"/>
+      <c r="AM234" s="1"/>
+      <c r="AN234" s="1"/>
+      <c r="AO234" s="1"/>
+      <c r="AP234" s="1"/>
+      <c r="AQ234" s="1"/>
+      <c r="AR234" s="1"/>
+      <c r="AS234" s="1"/>
+      <c r="AT234" s="1"/>
+      <c r="AU234" s="1"/>
+    </row>
+    <row r="235" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
+      <c r="AH235" s="1"/>
+      <c r="AI235" s="1"/>
+      <c r="AJ235" s="1"/>
+      <c r="AK235" s="1"/>
+      <c r="AL235" s="1"/>
+      <c r="AM235" s="1"/>
+      <c r="AN235" s="1"/>
+      <c r="AO235" s="1"/>
+      <c r="AP235" s="1"/>
+      <c r="AQ235" s="1"/>
+      <c r="AR235" s="1"/>
+      <c r="AS235" s="1"/>
+      <c r="AT235" s="1"/>
+      <c r="AU235" s="1"/>
+    </row>
+    <row r="236" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
+      <c r="AH236" s="1"/>
+      <c r="AI236" s="1"/>
+      <c r="AJ236" s="1"/>
+      <c r="AK236" s="1"/>
+      <c r="AL236" s="1"/>
+      <c r="AM236" s="1"/>
+      <c r="AN236" s="1"/>
+      <c r="AO236" s="1"/>
+      <c r="AP236" s="1"/>
+      <c r="AQ236" s="1"/>
+      <c r="AR236" s="1"/>
+      <c r="AS236" s="1"/>
+      <c r="AT236" s="1"/>
+      <c r="AU236" s="1"/>
+    </row>
+    <row r="237" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+      <c r="AH237" s="1"/>
+      <c r="AI237" s="1"/>
+      <c r="AJ237" s="1"/>
+      <c r="AK237" s="1"/>
+      <c r="AL237" s="1"/>
+      <c r="AM237" s="1"/>
+      <c r="AN237" s="1"/>
+      <c r="AO237" s="1"/>
+      <c r="AP237" s="1"/>
+      <c r="AQ237" s="1"/>
+      <c r="AR237" s="1"/>
+      <c r="AS237" s="1"/>
+      <c r="AT237" s="1"/>
+      <c r="AU237" s="1"/>
+    </row>
+    <row r="238" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
+      <c r="AD238" s="1"/>
+      <c r="AE238" s="1"/>
+      <c r="AF238" s="1"/>
+      <c r="AG238" s="1"/>
+      <c r="AH238" s="1"/>
+      <c r="AI238" s="1"/>
+      <c r="AJ238" s="1"/>
+      <c r="AK238" s="1"/>
+      <c r="AL238" s="1"/>
+      <c r="AM238" s="1"/>
+      <c r="AN238" s="1"/>
+      <c r="AO238" s="1"/>
+      <c r="AP238" s="1"/>
+      <c r="AQ238" s="1"/>
+      <c r="AR238" s="1"/>
+      <c r="AS238" s="1"/>
+      <c r="AT238" s="1"/>
+      <c r="AU238" s="1"/>
+    </row>
+    <row r="239" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+      <c r="AH239" s="1"/>
+      <c r="AI239" s="1"/>
+      <c r="AJ239" s="1"/>
+      <c r="AK239" s="1"/>
+      <c r="AL239" s="1"/>
+      <c r="AM239" s="1"/>
+      <c r="AN239" s="1"/>
+      <c r="AO239" s="1"/>
+      <c r="AP239" s="1"/>
+      <c r="AQ239" s="1"/>
+      <c r="AR239" s="1"/>
+      <c r="AS239" s="1"/>
+      <c r="AT239" s="1"/>
+      <c r="AU239" s="1"/>
+    </row>
+    <row r="240" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+      <c r="AE240" s="1"/>
+      <c r="AF240" s="1"/>
+      <c r="AG240" s="1"/>
+      <c r="AH240" s="1"/>
+      <c r="AI240" s="1"/>
+      <c r="AJ240" s="1"/>
+      <c r="AK240" s="1"/>
+      <c r="AL240" s="1"/>
+      <c r="AM240" s="1"/>
+      <c r="AN240" s="1"/>
+      <c r="AO240" s="1"/>
+      <c r="AP240" s="1"/>
+      <c r="AQ240" s="1"/>
+      <c r="AR240" s="1"/>
+      <c r="AS240" s="1"/>
+      <c r="AT240" s="1"/>
+      <c r="AU240" s="1"/>
+    </row>
+    <row r="241" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="S241" s="1"/>
+      <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+      <c r="Y241" s="1"/>
+      <c r="Z241" s="1"/>
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+      <c r="AE241" s="1"/>
+      <c r="AF241" s="1"/>
+      <c r="AG241" s="1"/>
+      <c r="AH241" s="1"/>
+      <c r="AI241" s="1"/>
+      <c r="AJ241" s="1"/>
+      <c r="AK241" s="1"/>
+      <c r="AL241" s="1"/>
+      <c r="AM241" s="1"/>
+      <c r="AN241" s="1"/>
+      <c r="AO241" s="1"/>
+      <c r="AP241" s="1"/>
+      <c r="AQ241" s="1"/>
+      <c r="AR241" s="1"/>
+      <c r="AS241" s="1"/>
+      <c r="AT241" s="1"/>
+      <c r="AU241" s="1"/>
+    </row>
+    <row r="242" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="S242" s="1"/>
+      <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+      <c r="AE242" s="1"/>
+      <c r="AF242" s="1"/>
+      <c r="AG242" s="1"/>
+      <c r="AH242" s="1"/>
+      <c r="AI242" s="1"/>
+      <c r="AJ242" s="1"/>
+      <c r="AK242" s="1"/>
+      <c r="AL242" s="1"/>
+      <c r="AM242" s="1"/>
+      <c r="AN242" s="1"/>
+      <c r="AO242" s="1"/>
+      <c r="AP242" s="1"/>
+      <c r="AQ242" s="1"/>
+      <c r="AR242" s="1"/>
+      <c r="AS242" s="1"/>
+      <c r="AT242" s="1"/>
+      <c r="AU242" s="1"/>
+    </row>
+    <row r="243" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="S243" s="1"/>
+      <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+      <c r="Y243" s="1"/>
+      <c r="Z243" s="1"/>
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+      <c r="AE243" s="1"/>
+      <c r="AF243" s="1"/>
+      <c r="AG243" s="1"/>
+      <c r="AH243" s="1"/>
+      <c r="AI243" s="1"/>
+      <c r="AJ243" s="1"/>
+      <c r="AK243" s="1"/>
+      <c r="AL243" s="1"/>
+      <c r="AM243" s="1"/>
+      <c r="AN243" s="1"/>
+      <c r="AO243" s="1"/>
+      <c r="AP243" s="1"/>
+      <c r="AQ243" s="1"/>
+      <c r="AR243" s="1"/>
+      <c r="AS243" s="1"/>
+      <c r="AT243" s="1"/>
+      <c r="AU243" s="1"/>
+    </row>
+    <row r="244" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="S244" s="1"/>
+      <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+      <c r="Y244" s="1"/>
+      <c r="Z244" s="1"/>
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
+      <c r="AE244" s="1"/>
+      <c r="AF244" s="1"/>
+      <c r="AG244" s="1"/>
+      <c r="AH244" s="1"/>
+      <c r="AI244" s="1"/>
+      <c r="AJ244" s="1"/>
+      <c r="AK244" s="1"/>
+      <c r="AL244" s="1"/>
+      <c r="AM244" s="1"/>
+      <c r="AN244" s="1"/>
+      <c r="AO244" s="1"/>
+      <c r="AP244" s="1"/>
+      <c r="AQ244" s="1"/>
+      <c r="AR244" s="1"/>
+      <c r="AS244" s="1"/>
+      <c r="AT244" s="1"/>
+      <c r="AU244" s="1"/>
+    </row>
+    <row r="245" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
+      <c r="AE245" s="1"/>
+      <c r="AF245" s="1"/>
+      <c r="AG245" s="1"/>
+      <c r="AH245" s="1"/>
+      <c r="AI245" s="1"/>
+      <c r="AJ245" s="1"/>
+      <c r="AK245" s="1"/>
+      <c r="AL245" s="1"/>
+      <c r="AM245" s="1"/>
+      <c r="AN245" s="1"/>
+      <c r="AO245" s="1"/>
+      <c r="AP245" s="1"/>
+      <c r="AQ245" s="1"/>
+      <c r="AR245" s="1"/>
+      <c r="AS245" s="1"/>
+      <c r="AT245" s="1"/>
+      <c r="AU245" s="1"/>
+    </row>
+    <row r="246" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+      <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
+      <c r="AD246" s="1"/>
+      <c r="AE246" s="1"/>
+      <c r="AF246" s="1"/>
+      <c r="AG246" s="1"/>
+      <c r="AH246" s="1"/>
+      <c r="AI246" s="1"/>
+      <c r="AJ246" s="1"/>
+      <c r="AK246" s="1"/>
+      <c r="AL246" s="1"/>
+      <c r="AM246" s="1"/>
+      <c r="AN246" s="1"/>
+      <c r="AO246" s="1"/>
+      <c r="AP246" s="1"/>
+      <c r="AQ246" s="1"/>
+      <c r="AR246" s="1"/>
+      <c r="AS246" s="1"/>
+      <c r="AT246" s="1"/>
+      <c r="AU246" s="1"/>
+    </row>
+    <row r="247" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
+      <c r="AD247" s="1"/>
+      <c r="AE247" s="1"/>
+      <c r="AF247" s="1"/>
+      <c r="AG247" s="1"/>
+      <c r="AH247" s="1"/>
+      <c r="AI247" s="1"/>
+      <c r="AJ247" s="1"/>
+      <c r="AK247" s="1"/>
+      <c r="AL247" s="1"/>
+      <c r="AM247" s="1"/>
+      <c r="AN247" s="1"/>
+      <c r="AO247" s="1"/>
+      <c r="AP247" s="1"/>
+      <c r="AQ247" s="1"/>
+      <c r="AR247" s="1"/>
+      <c r="AS247" s="1"/>
+      <c r="AT247" s="1"/>
+      <c r="AU247" s="1"/>
+    </row>
+    <row r="248" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
+      <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
+      <c r="AC248" s="1"/>
+      <c r="AD248" s="1"/>
+      <c r="AE248" s="1"/>
+      <c r="AF248" s="1"/>
+      <c r="AG248" s="1"/>
+      <c r="AH248" s="1"/>
+      <c r="AI248" s="1"/>
+      <c r="AJ248" s="1"/>
+      <c r="AK248" s="1"/>
+      <c r="AL248" s="1"/>
+      <c r="AM248" s="1"/>
+      <c r="AN248" s="1"/>
+      <c r="AO248" s="1"/>
+      <c r="AP248" s="1"/>
+      <c r="AQ248" s="1"/>
+      <c r="AR248" s="1"/>
+      <c r="AS248" s="1"/>
+      <c r="AT248" s="1"/>
+      <c r="AU248" s="1"/>
+    </row>
+    <row r="249" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
+      <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
+      <c r="AC249" s="1"/>
+      <c r="AD249" s="1"/>
+      <c r="AE249" s="1"/>
+      <c r="AF249" s="1"/>
+      <c r="AG249" s="1"/>
+      <c r="AH249" s="1"/>
+      <c r="AI249" s="1"/>
+      <c r="AJ249" s="1"/>
+      <c r="AK249" s="1"/>
+      <c r="AL249" s="1"/>
+      <c r="AM249" s="1"/>
+      <c r="AN249" s="1"/>
+      <c r="AO249" s="1"/>
+      <c r="AP249" s="1"/>
+      <c r="AQ249" s="1"/>
+      <c r="AR249" s="1"/>
+      <c r="AS249" s="1"/>
+      <c r="AT249" s="1"/>
+      <c r="AU249" s="1"/>
+    </row>
+    <row r="250" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
+      <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
+      <c r="AC250" s="1"/>
+      <c r="AD250" s="1"/>
+      <c r="AE250" s="1"/>
+      <c r="AF250" s="1"/>
+      <c r="AG250" s="1"/>
+      <c r="AH250" s="1"/>
+      <c r="AI250" s="1"/>
+      <c r="AJ250" s="1"/>
+      <c r="AK250" s="1"/>
+      <c r="AL250" s="1"/>
+      <c r="AM250" s="1"/>
+      <c r="AN250" s="1"/>
+      <c r="AO250" s="1"/>
+      <c r="AP250" s="1"/>
+      <c r="AQ250" s="1"/>
+      <c r="AR250" s="1"/>
+      <c r="AS250" s="1"/>
+      <c r="AT250" s="1"/>
+      <c r="AU250" s="1"/>
+    </row>
+    <row r="251" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
+      <c r="AD251" s="1"/>
+      <c r="AE251" s="1"/>
+      <c r="AF251" s="1"/>
+      <c r="AG251" s="1"/>
+      <c r="AH251" s="1"/>
+      <c r="AI251" s="1"/>
+      <c r="AJ251" s="1"/>
+      <c r="AK251" s="1"/>
+      <c r="AL251" s="1"/>
+      <c r="AM251" s="1"/>
+      <c r="AN251" s="1"/>
+      <c r="AO251" s="1"/>
+      <c r="AP251" s="1"/>
+      <c r="AQ251" s="1"/>
+      <c r="AR251" s="1"/>
+      <c r="AS251" s="1"/>
+      <c r="AT251" s="1"/>
+      <c r="AU251" s="1"/>
+    </row>
+    <row r="252" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
+      <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
+      <c r="AC252" s="1"/>
+      <c r="AD252" s="1"/>
+      <c r="AE252" s="1"/>
+      <c r="AF252" s="1"/>
+      <c r="AG252" s="1"/>
+      <c r="AH252" s="1"/>
+      <c r="AI252" s="1"/>
+      <c r="AJ252" s="1"/>
+      <c r="AK252" s="1"/>
+      <c r="AL252" s="1"/>
+      <c r="AM252" s="1"/>
+      <c r="AN252" s="1"/>
+      <c r="AO252" s="1"/>
+      <c r="AP252" s="1"/>
+      <c r="AQ252" s="1"/>
+      <c r="AR252" s="1"/>
+      <c r="AS252" s="1"/>
+      <c r="AT252" s="1"/>
+      <c r="AU252" s="1"/>
+    </row>
+    <row r="253" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="S253" s="1"/>
+      <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+      <c r="Y253" s="1"/>
+      <c r="Z253" s="1"/>
+      <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
+      <c r="AC253" s="1"/>
+      <c r="AD253" s="1"/>
+      <c r="AE253" s="1"/>
+      <c r="AF253" s="1"/>
+      <c r="AG253" s="1"/>
+      <c r="AH253" s="1"/>
+      <c r="AI253" s="1"/>
+      <c r="AJ253" s="1"/>
+      <c r="AK253" s="1"/>
+      <c r="AL253" s="1"/>
+      <c r="AM253" s="1"/>
+      <c r="AN253" s="1"/>
+      <c r="AO253" s="1"/>
+      <c r="AP253" s="1"/>
+      <c r="AQ253" s="1"/>
+      <c r="AR253" s="1"/>
+      <c r="AS253" s="1"/>
+      <c r="AT253" s="1"/>
+      <c r="AU253" s="1"/>
+    </row>
+    <row r="254" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="S254" s="1"/>
+      <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="X254" s="1"/>
+      <c r="Y254" s="1"/>
+      <c r="Z254" s="1"/>
+      <c r="AA254" s="1"/>
+      <c r="AB254" s="1"/>
+      <c r="AC254" s="1"/>
+      <c r="AD254" s="1"/>
+      <c r="AE254" s="1"/>
+      <c r="AF254" s="1"/>
+      <c r="AG254" s="1"/>
+      <c r="AH254" s="1"/>
+      <c r="AI254" s="1"/>
+      <c r="AJ254" s="1"/>
+      <c r="AK254" s="1"/>
+      <c r="AL254" s="1"/>
+      <c r="AM254" s="1"/>
+      <c r="AN254" s="1"/>
+      <c r="AO254" s="1"/>
+      <c r="AP254" s="1"/>
+      <c r="AQ254" s="1"/>
+      <c r="AR254" s="1"/>
+      <c r="AS254" s="1"/>
+      <c r="AT254" s="1"/>
+      <c r="AU254" s="1"/>
+    </row>
+    <row r="255" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+      <c r="Y255" s="1"/>
+      <c r="Z255" s="1"/>
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
+      <c r="AD255" s="1"/>
+      <c r="AE255" s="1"/>
+      <c r="AF255" s="1"/>
+      <c r="AG255" s="1"/>
+      <c r="AH255" s="1"/>
+      <c r="AI255" s="1"/>
+      <c r="AJ255" s="1"/>
+      <c r="AK255" s="1"/>
+      <c r="AL255" s="1"/>
+      <c r="AM255" s="1"/>
+      <c r="AN255" s="1"/>
+      <c r="AO255" s="1"/>
+      <c r="AP255" s="1"/>
+      <c r="AQ255" s="1"/>
+      <c r="AR255" s="1"/>
+      <c r="AS255" s="1"/>
+      <c r="AT255" s="1"/>
+      <c r="AU255" s="1"/>
+    </row>
+    <row r="256" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+      <c r="W256" s="1"/>
+      <c r="X256" s="1"/>
+      <c r="Y256" s="1"/>
+      <c r="Z256" s="1"/>
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
+      <c r="AD256" s="1"/>
+      <c r="AE256" s="1"/>
+      <c r="AF256" s="1"/>
+      <c r="AG256" s="1"/>
+      <c r="AH256" s="1"/>
+      <c r="AI256" s="1"/>
+      <c r="AJ256" s="1"/>
+      <c r="AK256" s="1"/>
+      <c r="AL256" s="1"/>
+      <c r="AM256" s="1"/>
+      <c r="AN256" s="1"/>
+      <c r="AO256" s="1"/>
+      <c r="AP256" s="1"/>
+      <c r="AQ256" s="1"/>
+      <c r="AR256" s="1"/>
+      <c r="AS256" s="1"/>
+      <c r="AT256" s="1"/>
+      <c r="AU256" s="1"/>
+    </row>
+    <row r="257" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
+      <c r="W257" s="1"/>
+      <c r="X257" s="1"/>
+      <c r="Y257" s="1"/>
+      <c r="Z257" s="1"/>
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
+      <c r="AD257" s="1"/>
+      <c r="AE257" s="1"/>
+      <c r="AF257" s="1"/>
+      <c r="AG257" s="1"/>
+      <c r="AH257" s="1"/>
+      <c r="AI257" s="1"/>
+      <c r="AJ257" s="1"/>
+      <c r="AK257" s="1"/>
+      <c r="AL257" s="1"/>
+      <c r="AM257" s="1"/>
+      <c r="AN257" s="1"/>
+      <c r="AO257" s="1"/>
+      <c r="AP257" s="1"/>
+      <c r="AQ257" s="1"/>
+      <c r="AR257" s="1"/>
+      <c r="AS257" s="1"/>
+      <c r="AT257" s="1"/>
+      <c r="AU257" s="1"/>
+    </row>
+    <row r="258" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+      <c r="AE258" s="1"/>
+      <c r="AF258" s="1"/>
+      <c r="AG258" s="1"/>
+      <c r="AH258" s="1"/>
+      <c r="AI258" s="1"/>
+      <c r="AJ258" s="1"/>
+      <c r="AK258" s="1"/>
+      <c r="AL258" s="1"/>
+      <c r="AM258" s="1"/>
+      <c r="AN258" s="1"/>
+      <c r="AO258" s="1"/>
+      <c r="AP258" s="1"/>
+      <c r="AQ258" s="1"/>
+      <c r="AR258" s="1"/>
+      <c r="AS258" s="1"/>
+      <c r="AT258" s="1"/>
+      <c r="AU258" s="1"/>
+    </row>
+    <row r="259" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+      <c r="AD259" s="1"/>
+      <c r="AE259" s="1"/>
+      <c r="AF259" s="1"/>
+      <c r="AG259" s="1"/>
+      <c r="AH259" s="1"/>
+      <c r="AI259" s="1"/>
+      <c r="AJ259" s="1"/>
+      <c r="AK259" s="1"/>
+      <c r="AL259" s="1"/>
+      <c r="AM259" s="1"/>
+      <c r="AN259" s="1"/>
+      <c r="AO259" s="1"/>
+      <c r="AP259" s="1"/>
+      <c r="AQ259" s="1"/>
+      <c r="AR259" s="1"/>
+      <c r="AS259" s="1"/>
+      <c r="AT259" s="1"/>
+      <c r="AU259" s="1"/>
+    </row>
+    <row r="260" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+      <c r="AD260" s="1"/>
+      <c r="AE260" s="1"/>
+      <c r="AF260" s="1"/>
+      <c r="AG260" s="1"/>
+      <c r="AH260" s="1"/>
+      <c r="AI260" s="1"/>
+      <c r="AJ260" s="1"/>
+      <c r="AK260" s="1"/>
+      <c r="AL260" s="1"/>
+      <c r="AM260" s="1"/>
+      <c r="AN260" s="1"/>
+      <c r="AO260" s="1"/>
+      <c r="AP260" s="1"/>
+      <c r="AQ260" s="1"/>
+      <c r="AR260" s="1"/>
+      <c r="AS260" s="1"/>
+      <c r="AT260" s="1"/>
+      <c r="AU260" s="1"/>
+    </row>
+    <row r="261" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="X261" s="1"/>
+      <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+      <c r="AD261" s="1"/>
+      <c r="AE261" s="1"/>
+      <c r="AF261" s="1"/>
+      <c r="AG261" s="1"/>
+      <c r="AH261" s="1"/>
+      <c r="AI261" s="1"/>
+      <c r="AJ261" s="1"/>
+      <c r="AK261" s="1"/>
+      <c r="AL261" s="1"/>
+      <c r="AM261" s="1"/>
+      <c r="AN261" s="1"/>
+      <c r="AO261" s="1"/>
+      <c r="AP261" s="1"/>
+      <c r="AQ261" s="1"/>
+      <c r="AR261" s="1"/>
+      <c r="AS261" s="1"/>
+      <c r="AT261" s="1"/>
+      <c r="AU261" s="1"/>
+    </row>
+    <row r="262" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
+      <c r="AD262" s="1"/>
+      <c r="AE262" s="1"/>
+      <c r="AF262" s="1"/>
+      <c r="AG262" s="1"/>
+      <c r="AH262" s="1"/>
+      <c r="AI262" s="1"/>
+      <c r="AJ262" s="1"/>
+      <c r="AK262" s="1"/>
+      <c r="AL262" s="1"/>
+      <c r="AM262" s="1"/>
+      <c r="AN262" s="1"/>
+      <c r="AO262" s="1"/>
+      <c r="AP262" s="1"/>
+      <c r="AQ262" s="1"/>
+      <c r="AR262" s="1"/>
+      <c r="AS262" s="1"/>
+      <c r="AT262" s="1"/>
+      <c r="AU262" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
